--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2022.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2022.xlsx
@@ -384,7 +384,7 @@
         <v>210.648</v>
       </c>
       <c r="C2">
-        <v>152.4165804052767</v>
+        <v>156.9520094073222</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>15.5</v>
       </c>
       <c r="C3">
-        <v>11.21518835347019</v>
+        <v>11.54891641892396</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>12.117</v>
       </c>
       <c r="C4">
-        <v>8.767383050257957</v>
+        <v>9.028272274071071</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>19.06</v>
       </c>
       <c r="C5">
-        <v>13.79106387207367</v>
+        <v>14.20144173836713</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>45.867</v>
       </c>
       <c r="C6">
-        <v>33.18755123926563</v>
+        <v>34.17510641205065</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>14.323</v>
       </c>
       <c r="C7">
-        <v>10.36355759914539</v>
+        <v>10.6719438624676</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>9.741</v>
       </c>
       <c r="C8">
-        <v>7.048203209751816</v>
+        <v>7.257935150757307</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>35.337</v>
       </c>
       <c r="C9">
-        <v>25.56845876429524</v>
+        <v>26.32929416100103</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>63.471</v>
       </c>
       <c r="C10">
-        <v>45.92511096665203</v>
+        <v>47.2916950984208</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>12.024</v>
       </c>
       <c r="C11">
-        <v>8.700091920137133</v>
+        <v>8.958978775557526</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>4.657</v>
       </c>
       <c r="C12">
-        <v>3.369621429813593</v>
+        <v>3.469890565350249</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>9.151</v>
       </c>
       <c r="C13">
-        <v>6.621302491781014</v>
+        <v>6.818331235456331</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.103</v>
       </c>
       <c r="C14">
-        <v>1.521647813377279</v>
+        <v>1.566927176064328</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>1.826</v>
       </c>
       <c r="C15">
-        <v>1.321221544092682</v>
+        <v>1.360536863287429</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>28.249</v>
       </c>
       <c r="C16">
-        <v>20.43986166433416</v>
+        <v>21.04808644633438</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>29.253</v>
       </c>
       <c r="C17">
-        <v>21.16631644542345</v>
+        <v>21.7961581937279</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>12.967</v>
       </c>
       <c r="C18">
-        <v>9.382409508351483</v>
+        <v>9.661599948657223</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.45</v>
       </c>
       <c r="C19">
-        <v>1.049162781453663</v>
+        <v>1.080382503705789</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>30.499</v>
       </c>
       <c r="C20">
-        <v>22.06787287693466</v>
+        <v>22.72454205553302</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>89.256</v>
       </c>
       <c r="C21">
-        <v>64.5821194630539</v>
+        <v>66.50387637983721</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>10.021</v>
       </c>
       <c r="C22">
-        <v>7.250800160653212</v>
+        <v>7.466560737679805</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.213</v>
       </c>
       <c r="C23">
-        <v>2.324800011593531</v>
+        <v>2.393978609935656</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>32.364</v>
       </c>
       <c r="C24">
-        <v>23.41731328204576</v>
+        <v>24.11413748271322</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>7.198</v>
       </c>
       <c r="C25">
-        <v>5.208188759243771</v>
+        <v>5.363167766671912</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>12.912</v>
       </c>
       <c r="C26">
-        <v>9.342613678710137</v>
+        <v>9.620619922654589</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>26.733</v>
       </c>
       <c r="C27">
-        <v>19.34294388731088</v>
+        <v>19.91852791142543</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>9.81</v>
       </c>
       <c r="C28">
-        <v>7.098128886938231</v>
+        <v>7.309346456106066</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>7.037</v>
       </c>
       <c r="C29">
-        <v>5.091695512475467</v>
+        <v>5.243208054191476</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>4.158</v>
       </c>
       <c r="C30">
-        <v>3.008564720885746</v>
+        <v>3.098089965799085</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>2.357</v>
       </c>
       <c r="C31">
-        <v>1.705432190266403</v>
+        <v>1.756180387058308</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>6.38</v>
       </c>
       <c r="C32">
-        <v>4.616316238396117</v>
+        <v>4.753683016305474</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.998</v>
       </c>
       <c r="C33">
-        <v>2.169234495722815</v>
+        <v>2.233783962834453</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>119.356</v>
       </c>
       <c r="C34">
-        <v>86.36129168495407</v>
+        <v>88.93112697400565</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>10.967</v>
       </c>
       <c r="C35">
-        <v>7.935288430484362</v>
+        <v>8.171417184925099</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>32.273</v>
       </c>
       <c r="C36">
-        <v>23.35146927300281</v>
+        <v>24.04633416696341</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.524</v>
       </c>
       <c r="C37">
-        <v>3.99694841706899</v>
+        <v>4.115884793428125</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>4.939</v>
       </c>
       <c r="C38">
-        <v>3.573665501792856</v>
+        <v>3.680006335036479</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>11.584</v>
       </c>
       <c r="C39">
-        <v>8.381725283006368</v>
+        <v>8.631138567536459</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>1.309</v>
       </c>
       <c r="C40">
-        <v>0.947140745464031</v>
+        <v>0.9753246188626747</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.424</v>
       </c>
       <c r="C41">
-        <v>5.371713441042756</v>
+        <v>5.531558418973643</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>33.946</v>
       </c>
       <c r="C42">
-        <v>301</v>
+        <v>280.2</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2022.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2022.xlsx
@@ -384,7 +384,7 @@
         <v>210.648</v>
       </c>
       <c r="C2">
-        <v>156.9520094073222</v>
+        <v>155.5511967810478</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>15.5</v>
       </c>
       <c r="C3">
-        <v>11.54891641892396</v>
+        <v>11.44584116681023</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>12.117</v>
       </c>
       <c r="C4">
-        <v>9.028272274071071</v>
+        <v>8.947694026983196</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>19.06</v>
       </c>
       <c r="C5">
-        <v>14.20144173836713</v>
+        <v>14.07469242834858</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>45.867</v>
       </c>
       <c r="C6">
-        <v>34.17510641205065</v>
+        <v>33.87009011600546</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>14.323</v>
       </c>
       <c r="C7">
-        <v>10.6719438624676</v>
+        <v>10.57669567949825</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>9.741</v>
       </c>
       <c r="C8">
-        <v>7.257935150757307</v>
+        <v>7.193157342316028</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>35.337</v>
       </c>
       <c r="C9">
-        <v>26.32929416100103</v>
+        <v>26.09430253623052</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>63.471</v>
       </c>
       <c r="C10">
-        <v>47.2916950984208</v>
+        <v>46.86961191603948</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>12.024</v>
       </c>
       <c r="C11">
-        <v>8.958978775557526</v>
+        <v>8.879018979982334</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>4.657</v>
       </c>
       <c r="C12">
-        <v>3.469890565350249</v>
+        <v>3.438921439602273</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>9.151</v>
       </c>
       <c r="C13">
-        <v>6.818331235456331</v>
+        <v>6.757476936611639</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.103</v>
       </c>
       <c r="C14">
-        <v>1.566927176064328</v>
+        <v>1.552942191858188</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>1.826</v>
       </c>
       <c r="C15">
-        <v>1.360536863287429</v>
+        <v>1.348393933586805</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>28.249</v>
       </c>
       <c r="C16">
-        <v>21.04808644633438</v>
+        <v>20.86023013685304</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>29.253</v>
       </c>
       <c r="C17">
-        <v>21.7961581937279</v>
+        <v>21.6016252679161</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>12.967</v>
       </c>
       <c r="C18">
-        <v>9.661599948657223</v>
+        <v>9.575369187743757</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.45</v>
       </c>
       <c r="C19">
-        <v>1.080382503705789</v>
+        <v>1.070739980120957</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>30.499</v>
       </c>
       <c r="C20">
-        <v>22.72454205553302</v>
+        <v>22.52172320945452</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>89.256</v>
       </c>
       <c r="C21">
-        <v>66.50387637983721</v>
+        <v>65.91032252805249</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>10.021</v>
       </c>
       <c r="C22">
-        <v>7.466560737679805</v>
+        <v>7.399920924684213</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.213</v>
       </c>
       <c r="C23">
-        <v>2.393978609935656</v>
+        <v>2.37261210767492</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>32.364</v>
       </c>
       <c r="C24">
-        <v>24.11413748271322</v>
+        <v>23.89891635629975</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>7.198</v>
       </c>
       <c r="C25">
-        <v>5.363167766671912</v>
+        <v>5.31530094959355</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>12.912</v>
       </c>
       <c r="C26">
-        <v>9.620619922654589</v>
+        <v>9.534754912635721</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>26.733</v>
       </c>
       <c r="C27">
-        <v>19.91852791142543</v>
+        <v>19.74075302660244</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>9.81</v>
       </c>
       <c r="C28">
-        <v>7.309346456106066</v>
+        <v>7.244109796542473</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>7.037</v>
       </c>
       <c r="C29">
-        <v>5.243208054191476</v>
+        <v>5.196411889731843</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>4.158</v>
       </c>
       <c r="C30">
-        <v>3.098089965799085</v>
+        <v>3.070439198167544</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>2.357</v>
       </c>
       <c r="C31">
-        <v>1.756180387058308</v>
+        <v>1.740506298720755</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>6.38</v>
       </c>
       <c r="C32">
-        <v>4.753683016305474</v>
+        <v>4.71125591253221</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.998</v>
       </c>
       <c r="C33">
-        <v>2.233783962834453</v>
+        <v>2.213847214070778</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>119.356</v>
       </c>
       <c r="C34">
-        <v>88.93112697400565</v>
+        <v>88.13740763263235</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>10.967</v>
       </c>
       <c r="C35">
-        <v>8.171417184925099</v>
+        <v>8.098486456542437</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>32.273</v>
       </c>
       <c r="C36">
-        <v>24.04633416696341</v>
+        <v>23.8317181920301</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.524</v>
       </c>
       <c r="C37">
-        <v>4.115884793428125</v>
+        <v>4.079150103578045</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>4.939</v>
       </c>
       <c r="C38">
-        <v>3.680006335036479</v>
+        <v>3.647161904701659</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>11.584</v>
       </c>
       <c r="C39">
-        <v>8.631138567536459</v>
+        <v>8.554104779118044</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>1.309</v>
       </c>
       <c r="C40">
-        <v>0.9753246188626747</v>
+        <v>0.9666197475712638</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.424</v>
       </c>
       <c r="C41">
-        <v>5.531558418973643</v>
+        <v>5.482188698219299</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>33.946</v>
       </c>
       <c r="C42">
-        <v>280.2</v>
+        <v>286.624288113289</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2022.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2022.xlsx
@@ -384,7 +384,7 @@
         <v>210.648</v>
       </c>
       <c r="C2">
-        <v>156.9520094073222</v>
+        <v>154.8609149780137</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>15.5</v>
       </c>
       <c r="C3">
-        <v>11.54891641892396</v>
+        <v>11.39504852720753</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>12.117</v>
       </c>
       <c r="C4">
-        <v>9.028272274071071</v>
+        <v>8.90798729059185</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>19.06</v>
       </c>
       <c r="C5">
-        <v>14.20144173836713</v>
+        <v>14.01223386635971</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>45.867</v>
       </c>
       <c r="C6">
-        <v>34.17510641205065</v>
+        <v>33.71978650305986</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>14.323</v>
       </c>
       <c r="C7">
-        <v>10.6719438624676</v>
+        <v>10.52976000356087</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>9.741</v>
       </c>
       <c r="C8">
-        <v>7.257935150757307</v>
+        <v>7.161236626034102</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>35.337</v>
       </c>
       <c r="C9">
-        <v>26.32929416100103</v>
+        <v>25.97850514876984</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>63.471</v>
       </c>
       <c r="C10">
-        <v>47.2916950984208</v>
+        <v>46.66162097228318</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>12.024</v>
       </c>
       <c r="C11">
-        <v>8.958978775557526</v>
+        <v>8.839616999428603</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>4.657</v>
       </c>
       <c r="C12">
-        <v>3.469890565350249</v>
+        <v>3.423660709110031</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>9.151</v>
       </c>
       <c r="C13">
-        <v>6.818331235456331</v>
+        <v>6.727489617579105</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.103</v>
       </c>
       <c r="C14">
-        <v>1.566927176064328</v>
+        <v>1.546050777594674</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>1.826</v>
       </c>
       <c r="C15">
-        <v>1.360536863287429</v>
+        <v>1.342410232947159</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>28.249</v>
       </c>
       <c r="C16">
-        <v>21.04808644633438</v>
+        <v>20.76765973194101</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>29.253</v>
       </c>
       <c r="C17">
-        <v>21.7961581937279</v>
+        <v>21.50576481073561</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>12.967</v>
       </c>
       <c r="C18">
-        <v>9.661599948657223</v>
+        <v>9.532877048535489</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.45</v>
       </c>
       <c r="C19">
-        <v>1.080382503705789</v>
+        <v>1.065988410609737</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>30.499</v>
       </c>
       <c r="C20">
-        <v>22.72454205553302</v>
+        <v>22.42177967943887</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>89.256</v>
       </c>
       <c r="C21">
-        <v>66.50387637983721</v>
+        <v>65.61783557060875</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>10.021</v>
       </c>
       <c r="C22">
-        <v>7.466560737679805</v>
+        <v>7.367082663944948</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>3.213</v>
       </c>
       <c r="C23">
-        <v>2.393978609935656</v>
+        <v>2.362083285026955</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>32.364</v>
       </c>
       <c r="C24">
-        <v>24.11413748271322</v>
+        <v>23.79286132480933</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>7.198</v>
       </c>
       <c r="C25">
-        <v>5.363167766671912</v>
+        <v>5.291713503150956</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>12.912</v>
       </c>
       <c r="C26">
-        <v>9.620619922654589</v>
+        <v>9.492443005374431</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>26.733</v>
       </c>
       <c r="C27">
-        <v>19.91852791142543</v>
+        <v>19.653150469538</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>9.81</v>
       </c>
       <c r="C28">
-        <v>7.309346456106066</v>
+        <v>7.211962971090703</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>7.037</v>
       </c>
       <c r="C29">
-        <v>5.243208054191476</v>
+        <v>5.17335203135222</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>4.158</v>
       </c>
       <c r="C30">
-        <v>3.098089965799085</v>
+        <v>3.05681366297606</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>2.357</v>
       </c>
       <c r="C31">
-        <v>1.756180387058308</v>
+        <v>1.732782540556655</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>6.38</v>
       </c>
       <c r="C32">
-        <v>4.753683016305474</v>
+        <v>4.690349006682842</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.998</v>
       </c>
       <c r="C33">
-        <v>2.233783962834453</v>
+        <v>2.20402293448827</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>119.356</v>
       </c>
       <c r="C34">
-        <v>88.93112697400565</v>
+        <v>87.74628464602465</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>10.967</v>
       </c>
       <c r="C35">
-        <v>8.171417184925099</v>
+        <v>8.062548206315164</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>32.273</v>
       </c>
       <c r="C36">
-        <v>24.04633416696341</v>
+        <v>23.72596136248831</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>5.524</v>
       </c>
       <c r="C37">
-        <v>4.115884793428125</v>
+        <v>4.061048262212543</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>4.939</v>
       </c>
       <c r="C38">
-        <v>3.680006335036479</v>
+        <v>3.630977075863097</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>11.584</v>
       </c>
       <c r="C39">
-        <v>8.631138567536459</v>
+        <v>8.516144654140133</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>1.309</v>
       </c>
       <c r="C40">
-        <v>0.9753246188626747</v>
+        <v>0.9623302272332039</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>7.424</v>
       </c>
       <c r="C41">
-        <v>5.531558418973643</v>
+        <v>5.457860662321854</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>33.946</v>
       </c>
       <c r="C42">
-        <v>280.2</v>
+        <v>289.79</v>
       </c>
     </row>
   </sheetData>
